--- a/WEBサイト感想.xlsx
+++ b/WEBサイト感想.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20475" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20475" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6.1" sheetId="1" r:id="rId1"/>
     <sheet name="6.6" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="6.13" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>感想(良い点)</t>
     <rPh sb="0" eb="2">
@@ -854,10 +853,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STANDFOUNDATION co,itd.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特になし</t>
     <rPh sb="0" eb="1">
       <t>トク</t>
@@ -1087,6 +1082,384 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/1,6/6の感想。タブレット、スマホ用の画面レイアウトのときはカーソルを乗せられないのでカーソルを乗せたときに出る説明文(?)が常に表示されている。
+ソースが読み辛くてレスポンシブデザインの使用の仕方が知っているものか確認できなかったことが残念です。</t>
+    <rPh sb="8" eb="10">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ヅラ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ザンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社デライトアーツ</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面左上のメニューボタン(?)を押したときにそのボタンが変化して新しいページの削除ボタンになるアニメーションが面白い</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社スロウハンドデザイン</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すっきりしていて見やすい。サイトリニューアル中だった完成したページを見てみたい</t>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社コンテンツ</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページがループしている。最初の会社ロゴがあるページ(?)が良い感じで、ずらし方によって動きが異なり面白い。各項目の説明の表示も凝っていてよい。</t>
+    <rPh sb="12" eb="14">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社クーシー</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページのところどころにいろんなギミックを用意している。</t>
+    <rPh sb="20" eb="22">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STANDFOUNDATION co,itd.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社エフアイシーシー</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーの挙動が面白い</t>
+    <rPh sb="5" eb="7">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社アプキー インドネシア</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社アジケ</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページで少しスクロールすれば自動で切りのいいところまで画面をスクロールしてくれる</t>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社BIRDMAN</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出に力を入れていてかっこいい。自分たちはこういったことをしたい、こういったことができる、といったことを入れているサイトだったかと思います。正直会社で見ていていいのか不安になりました。</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ショウジキ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>フアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフォメーション・アーキテクチャ研究所(IA lab)</t>
+    <rPh sb="17" eb="19">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雰囲気は良い。</t>
+    <rPh sb="0" eb="3">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RANA007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOEL Inc.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白をベースに黒・灰色で表示していき、できるだけ色を使わない表示をしている。清潔感というか、見ていてすっきりしている。色が入ってくるのは写真だけでほとんど白なのできれいな印象を受ける。</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>セイケツカン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>インショウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイライツ株式会社</t>
+    <rPh sb="5" eb="9">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余計な線がないのですっきりして見える。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社　凪</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社デジクロ</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1722,7 +2095,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2054,9 +2427,10 @@
     <hyperlink ref="B15" r:id="rId13"/>
     <hyperlink ref="B16" r:id="rId14"/>
     <hyperlink ref="B18" r:id="rId15" display="http://www.yotsutsuzi.com/"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://www.ekzm.co.jp/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2064,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2169,13 +2543,13 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -2187,13 +2561,13 @@
     </row>
     <row r="8" spans="2:11" ht="40.5">
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
@@ -2205,7 +2579,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2221,13 +2595,13 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
@@ -2239,13 +2613,13 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
@@ -2257,13 +2631,13 @@
     </row>
     <row r="12" spans="2:11" ht="27">
       <c r="B12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
@@ -2275,13 +2649,13 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
@@ -2293,13 +2667,13 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="15">
         <v>7</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -2311,13 +2685,13 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15">
         <v>3</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
@@ -2329,13 +2703,13 @@
     </row>
     <row r="16" spans="2:11" ht="27">
       <c r="B16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
@@ -2347,13 +2721,13 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="15">
         <v>5</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -2390,34 +2764,339 @@
     <hyperlink ref="B13" r:id="rId10"/>
     <hyperlink ref="B14" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B7" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="54.75" thickTop="1">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="27">
+      <c r="A3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="27">
+      <c r="A5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="27">
+      <c r="A9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="40.5">
+      <c r="A10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.5">
+      <c r="A13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="15">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>